--- a/焦炭/data_input/焦炭期货价格.xlsx
+++ b/焦炭/data_input/焦炭期货价格.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3578"/>
+  <dimension ref="A1:D3580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42509,6 +42509,34 @@
         <v>-176.8548</v>
       </c>
     </row>
+    <row r="3579">
+      <c r="A3579" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3579" t="n">
+        <v>1779.5</v>
+      </c>
+      <c r="C3579" t="n">
+        <v>1623.6559</v>
+      </c>
+      <c r="D3579" t="n">
+        <v>-155.8441</v>
+      </c>
+    </row>
+    <row r="3580">
+      <c r="A3580" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3580" t="n">
+        <v>1747.5</v>
+      </c>
+      <c r="C3580" t="n">
+        <v>1623.6559</v>
+      </c>
+      <c r="D3580" t="n">
+        <v>-123.8441</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
